--- a/va_facility_data_2025-02-20/Abilene VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Abilene%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Abilene VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Abilene%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R5ceea79ca575420b9a8ec3e268eae353"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rce69bf74393c4298b081908de818bfed"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R1f9cce2dbefc457d98fa619cec75094f"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R2dd308cfe5e741aeb8e59438bd5202dd"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R07f1d6f81b2d4d4db0c735d777ca819b"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Ra8d8c3dd56454ef699950c4accdc7eb0"/>
   </x:sheets>
 </x:workbook>
 </file>
